--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Intermediate Course Files/Instructor Files/Section 6/06-01-how-dates-and-times-work.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Intermediate Course Files/Instructor Files/Section 6/06-01-how-dates-and-times-work.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Intermediate/Course Files/Section 6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Intermediate Course Files\Instructor Files\Section 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{87A461DE-7BE6-4992-AC5E-583028F76EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{928ADFBF-A73C-48FC-9DD1-279F963A1710}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07187E8-6AE2-47B2-8E76-5847DACC644A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{FBD35164-CD38-4866-A1B7-2E6AA19C0E9A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FBD35164-CD38-4866-A1B7-2E6AA19C0E9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Date and Time" sheetId="1" r:id="rId1"/>
@@ -55,8 +55,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -122,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -133,8 +134,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,7 +454,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -490,275 +492,289 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>44197</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="8">
         <v>44197</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="6">
         <v>0.25</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>44198</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="8">
         <v>44198</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="6">
         <v>0.16666666666666699</v>
       </c>
       <c r="E6" s="1">
         <v>0.25</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="6">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>44199</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="8">
         <v>44199</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="6">
         <v>0.20833333333333301</v>
       </c>
       <c r="E7" s="1">
         <v>0.3</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>44200</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="8">
         <v>44200</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="6">
         <v>0.25</v>
       </c>
       <c r="E8" s="1">
         <v>0.4</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="6">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>44201</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="8">
         <v>44201</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="6">
         <v>0.29166666666666702</v>
       </c>
       <c r="E9" s="1">
         <v>0.5</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="6">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>44202</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="8">
         <v>44202</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="6">
         <v>0.33333333333333298</v>
       </c>
       <c r="E10" s="1">
         <v>0.75</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="6">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>44203</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="8">
         <v>44203</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="6">
         <v>0.375</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>44204</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="8">
         <v>44204</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="6">
         <v>0.41666666666666702</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>44205</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="8">
         <v>44205</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="6">
         <v>0.45833333333333298</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>44206</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="8">
         <v>44206</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>44207</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="8">
         <v>44207</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="6">
         <v>0.54166666666666696</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>44208</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="8">
         <v>44208</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="6">
         <v>0.58333333333333304</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>44209</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="8">
         <v>44209</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="6">
         <v>0.625</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>44210</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="8">
         <v>44210</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="6">
         <v>0.66666666666666696</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>44211</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="8">
         <v>44211</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="6">
         <v>0.70833333333333304</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>44212</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="8">
         <v>44212</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="6">
         <v>0.75</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>44213</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="8">
         <v>44213</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="6">
         <v>0.79166666666666696</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>44214</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="8">
         <v>44214</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="6">
         <v>0.83333333333333304</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>44215</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="8">
         <v>44215</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="6">
         <v>0.875</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>44216</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="8">
         <v>44216</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="6">
         <v>0.91666666666666696</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>44217</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="8">
         <v>44217</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="6">
         <v>0.95833333333333304</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>44218</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="8">
         <v>44218</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="6">
         <v>1</v>
       </c>
     </row>
